--- a/Submarine/Podmornica 5.5.2019 B.xlsx
+++ b/Submarine/Podmornica 5.5.2019 B.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\DRIVE2\Projects\STEM GAMES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\STEM\git\Submarine\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{345F71A6-CF9A-4F5C-80F9-4D8233BDC31F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7610"/>
+    <workbookView xWindow="-9915" yWindow="2970" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Podmornica" sheetId="1" r:id="rId1"/>
@@ -71,10 +72,16 @@
     <definedName name="solver_val" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -806,7 +813,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
@@ -1107,7 +1114,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1121,7 +1128,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1265,6 +1271,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A5B5-424D-80BE-552DDE0A45BF}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1447,7 +1458,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1580,6 +1591,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E0FC-46AC-8ABA-648AF3039E16}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1665,6 +1681,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E0FC-46AC-8ABA-648AF3039E16}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1750,6 +1771,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E0FC-46AC-8ABA-648AF3039E16}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -1835,6 +1861,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-E0FC-46AC-8ABA-648AF3039E16}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -1920,6 +1951,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-E0FC-46AC-8ABA-648AF3039E16}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2133,7 +2169,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2269,6 +2305,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-040D-4A4D-87E8-88A2F9BBC916}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2357,6 +2398,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-040D-4A4D-87E8-88A2F9BBC916}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2445,6 +2491,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-040D-4A4D-87E8-88A2F9BBC916}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -2533,6 +2584,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-040D-4A4D-87E8-88A2F9BBC916}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -2621,6 +2677,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-040D-4A4D-87E8-88A2F9BBC916}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2834,7 +2895,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2848,7 +2909,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2918,10 +2978,10 @@
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>7.6950000000000003</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.6863047419800097</c:v>
+                  <c:v>7.9123269078089367</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2933,15 +2993,20 @@
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1.9</c:v>
+                  <c:v>1.7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.401852224699863</c:v>
+                  <c:v>1.3002966594157845</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-263B-43DB-ABEA-6D30B3D4DA3E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -5364,7 +5429,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="Straight Arrow Connector 2"/>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5411,7 +5482,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Straight Arrow Connector 5"/>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5458,7 +5535,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5488,7 +5571,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5518,7 +5607,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5548,7 +5643,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5828,38 +5929,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:AQ233"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" topLeftCell="A112" colorId="8" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" defaultGridColor="0" colorId="8" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="18.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.90625" style="48"/>
-    <col min="2" max="2" width="35.90625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="22.81640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.90625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="30.54296875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="27.1796875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.54296875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.08984375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="23.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="43.54296875" style="1" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="13.90625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="10.453125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="12.90625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="48"/>
+    <col min="2" max="2" width="35.85546875" style="1" customWidth="1"/>
+    <col min="3" max="4" width="22.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="30.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="27.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="23.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="43.5703125" style="1" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" style="1" customWidth="1"/>
     <col min="15" max="15" width="13" style="1" customWidth="1"/>
-    <col min="16" max="17" width="8.90625" style="1"/>
-    <col min="18" max="23" width="10.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="8.90625" style="1"/>
+    <col min="16" max="17" width="8.85546875" style="1"/>
+    <col min="18" max="23" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="48">
         <v>1</v>
       </c>
@@ -5867,7 +5968,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>184</v>
       </c>
@@ -5878,7 +5979,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>185</v>
       </c>
@@ -5889,7 +5990,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -5900,7 +6001,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="48">
         <v>2</v>
       </c>
@@ -5908,18 +6009,18 @@
         <v>189</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="15">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>191</v>
       </c>
@@ -5927,7 +6028,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>109</v>
       </c>
@@ -5938,7 +6039,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>110</v>
       </c>
@@ -5949,7 +6050,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>172</v>
       </c>
@@ -5960,7 +6061,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
         <v>190</v>
       </c>
@@ -5971,7 +6072,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="48">
         <v>3</v>
       </c>
@@ -5979,35 +6080,35 @@
         <v>192</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D16" s="1">
         <f>D3*D5*D8</f>
-        <v>1508287.5</v>
+        <v>1005525</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D17" s="2">
         <f>D16/D18</f>
-        <v>15.082875</v>
+        <v>10.055249999999999</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H17" s="2">
         <f>F23+H66</f>
-        <v>203.90793524565922</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+        <v>139.92030343197496</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>6</v>
       </c>
@@ -6018,7 +6119,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="48">
         <v>4</v>
       </c>
@@ -6029,29 +6130,29 @@
         <v>187</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
         <v>201</v>
       </c>
       <c r="D21" s="19">
-        <v>12.39</v>
+        <v>15</v>
       </c>
       <c r="F21" s="20">
         <f>E152</f>
-        <v>12.405152767149396</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+        <v>11.107419135036581</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
         <v>202</v>
       </c>
       <c r="D22" s="19">
         <f>D21</f>
-        <v>12.39</v>
+        <v>15</v>
       </c>
       <c r="F22" s="20"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
         <v>10</v>
       </c>
@@ -6063,26 +6164,26 @@
       </c>
       <c r="F23" s="2">
         <f>I118</f>
-        <v>181.1495610498379</v>
+        <v>116.77794964486496</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>221</v>
       </c>
       <c r="I23" s="5"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
         <v>155</v>
       </c>
       <c r="D24" s="15">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F24" s="2">
         <f>I119</f>
-        <v>173.47894791675697</v>
+        <v>160.68675700446386</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>222</v>
@@ -6090,85 +6191,85 @@
       <c r="H24" s="2"/>
       <c r="I24" s="5"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
         <v>166</v>
       </c>
       <c r="D25" s="16">
         <f>D24-D23</f>
-        <v>0.39999999999999991</v>
+        <v>0.19999999999999996</v>
       </c>
       <c r="F25" s="2">
         <f>I115</f>
-        <v>99.950591856898612</v>
+        <v>65.761461756053663</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>229</v>
       </c>
       <c r="I25" s="5"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
         <v>212</v>
       </c>
       <c r="D26" s="1">
         <f>D21+2*D23</f>
-        <v>15.39</v>
+        <v>18</v>
       </c>
       <c r="I26" s="5"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
         <v>213</v>
       </c>
       <c r="D27" s="1">
         <f>D22+2*D24</f>
-        <v>16.190000000000001</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="E27" s="1">
         <f>D22+2*D24</f>
-        <v>16.190000000000001</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="I27" s="5"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F28" s="2">
         <f>F23-F24</f>
-        <v>7.6706131330809342</v>
+        <v>-43.908807359598896</v>
       </c>
       <c r="I28" s="5"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
         <v>214</v>
       </c>
       <c r="D29" s="5">
         <f>D47/(D26*2*D23*2*D23)</f>
-        <v>0.73436514433328659</v>
+        <v>0.74176493209758998</v>
       </c>
       <c r="I29" s="5"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
         <v>215</v>
       </c>
       <c r="D30" s="5">
         <f>D55/(D27*2*D24*2*D24)</f>
-        <v>0.74204926229537482</v>
+        <v>0.75544774430412154</v>
       </c>
       <c r="F30" s="5"/>
       <c r="I30" s="5"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I31" s="5"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I32" s="5"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I33" s="5"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="48">
         <v>5</v>
       </c>
@@ -6177,20 +6278,20 @@
       </c>
       <c r="I34" s="5"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B35" s="1" t="s">
         <v>205</v>
       </c>
       <c r="D35" s="2">
         <f>2*D23*PI()*D21</f>
-        <v>116.77299893393261</v>
+        <v>141.37166941154069</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I35" s="5"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B36" s="1" t="s">
         <v>13</v>
       </c>
@@ -6203,71 +6304,71 @@
       </c>
       <c r="I36" s="5"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D37" s="2">
         <f>D35+D36</f>
-        <v>145.04733281624075</v>
+        <v>169.64600329384882</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I37" s="5"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I38" s="5"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B39" s="24" t="s">
         <v>203</v>
       </c>
       <c r="I39" s="5"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B40" s="1" t="s">
         <v>206</v>
       </c>
       <c r="D40" s="2">
         <f>2*D24*PI()*D22</f>
-        <v>147.91246531631464</v>
+        <v>160.22122533307945</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I40" s="5"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B41" s="1" t="s">
         <v>207</v>
       </c>
       <c r="D41" s="2">
         <f>4*D24^2*PI()</f>
-        <v>45.364597917836612</v>
+        <v>36.316811075498002</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I41" s="5"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B42" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D42" s="2">
         <f>D40+D41</f>
-        <v>193.27706323415126</v>
+        <v>196.53803640857745</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I42" s="5"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I43" s="5"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="48">
         <v>6</v>
       </c>
@@ -6276,20 +6377,20 @@
       </c>
       <c r="I44" s="5"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B45" s="1" t="s">
         <v>151</v>
       </c>
       <c r="D45" s="2">
         <f>D23^2*PI()*D21</f>
-        <v>87.579749200449456</v>
+        <v>106.02875205865551</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I45" s="5"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B46" s="1" t="s">
         <v>91</v>
       </c>
@@ -6306,96 +6407,96 @@
       </c>
       <c r="I46" s="5"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B47" s="1" t="s">
         <v>208</v>
       </c>
       <c r="D47" s="20">
         <f>D45+D46</f>
-        <v>101.71691614160352</v>
+        <v>120.16591899980958</v>
       </c>
       <c r="E47" s="16" t="s">
         <v>12</v>
       </c>
       <c r="F47" s="1">
         <f>F28/(D45*D3/1000)</f>
-        <v>8.5448121012036804E-2</v>
+        <v>-0.40402117356747724</v>
       </c>
       <c r="I47" s="5"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B48" s="1" t="s">
         <v>209</v>
       </c>
       <c r="D48" s="2">
         <f>D47*$D$3/1000</f>
-        <v>104.25983904514361</v>
+        <v>123.17006697480481</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I48" s="5"/>
     </row>
-    <row r="49" spans="2:43" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:43" x14ac:dyDescent="0.3">
       <c r="D49" s="2"/>
       <c r="I49" s="5"/>
     </row>
-    <row r="50" spans="2:43" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:43" x14ac:dyDescent="0.3">
       <c r="D50" s="2"/>
       <c r="I50" s="5"/>
     </row>
-    <row r="51" spans="2:43" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B51" s="24" t="s">
         <v>198</v>
       </c>
       <c r="I51" s="5"/>
     </row>
-    <row r="52" spans="2:43" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B52" s="1" t="s">
         <v>199</v>
       </c>
       <c r="D52" s="2">
         <f>D24^2*PI()*D22</f>
-        <v>140.51684205049892</v>
+        <v>136.18804153311751</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I52" s="5"/>
     </row>
-    <row r="53" spans="2:43" x14ac:dyDescent="0.45">
+    <row r="53" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B53" s="1" t="s">
         <v>200</v>
       </c>
       <c r="D53" s="2">
         <f>4/3*D24^3*PI()</f>
-        <v>28.730912014629848</v>
+        <v>20.579526276115534</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I53" s="5"/>
     </row>
-    <row r="54" spans="2:43" x14ac:dyDescent="0.45">
+    <row r="54" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B54" s="1" t="s">
         <v>210</v>
       </c>
       <c r="D54" s="20">
         <f>D52+D53</f>
-        <v>169.24775406512876</v>
+        <v>156.76756780923304</v>
       </c>
       <c r="E54" s="16" t="s">
         <v>12</v>
       </c>
       <c r="I54" s="5"/>
     </row>
-    <row r="55" spans="2:43" x14ac:dyDescent="0.45">
+    <row r="55" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B55" s="1" t="s">
         <v>211</v>
       </c>
       <c r="D55" s="2">
         <f>D54*$D$3/1000</f>
-        <v>173.47894791675697</v>
+        <v>160.68675700446386</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>30</v>
@@ -6420,7 +6521,7 @@
       <c r="AP55" s="2"/>
       <c r="AQ55" s="2"/>
     </row>
-    <row r="56" spans="2:43" x14ac:dyDescent="0.45">
+    <row r="56" spans="2:43" x14ac:dyDescent="0.3">
       <c r="D56" s="2"/>
       <c r="I56" s="5"/>
       <c r="R56" s="2"/>
@@ -6442,7 +6543,7 @@
       <c r="AP56" s="2"/>
       <c r="AQ56" s="2"/>
     </row>
-    <row r="57" spans="2:43" x14ac:dyDescent="0.45">
+    <row r="57" spans="2:43" x14ac:dyDescent="0.3">
       <c r="D57" s="2"/>
       <c r="I57" s="5"/>
       <c r="R57" s="2"/>
@@ -6464,7 +6565,7 @@
       <c r="AP57" s="2"/>
       <c r="AQ57" s="2"/>
     </row>
-    <row r="58" spans="2:43" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="2:43" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B58" s="1" t="s">
         <v>14</v>
       </c>
@@ -6491,20 +6592,20 @@
       <c r="AP58" s="2"/>
       <c r="AQ58" s="2"/>
     </row>
-    <row r="59" spans="2:43" x14ac:dyDescent="0.45">
+    <row r="59" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B59" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D59" s="2">
         <f>D60*D61/2/(10*D62*D63-0.5*D60)</f>
-        <v>18.20930949558328</v>
+        <v>12.11502785352968</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F59" s="2">
         <f>D60*D61/(20*D62+D60)</f>
-        <v>17.990908152479864</v>
+        <v>12.017962552816316</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>19</v>
@@ -6532,13 +6633,13 @@
       <c r="AP59" s="2"/>
       <c r="AQ59" s="2"/>
     </row>
-    <row r="60" spans="2:43" x14ac:dyDescent="0.45">
+    <row r="60" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B60" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D60" s="2">
         <f>D17</f>
-        <v>15.082875</v>
+        <v>10.055249999999999</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>8</v>
@@ -6563,7 +6664,7 @@
       <c r="AP60" s="2"/>
       <c r="AQ60" s="2"/>
     </row>
-    <row r="61" spans="2:43" x14ac:dyDescent="0.45">
+    <row r="61" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B61" s="1" t="s">
         <v>51</v>
       </c>
@@ -6594,7 +6695,7 @@
       <c r="AP61" s="2"/>
       <c r="AQ61" s="2"/>
     </row>
-    <row r="62" spans="2:43" x14ac:dyDescent="0.45">
+    <row r="62" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B62" s="1" t="s">
         <v>16</v>
       </c>
@@ -6624,7 +6725,7 @@
       <c r="AP62" s="2"/>
       <c r="AQ62" s="2"/>
     </row>
-    <row r="63" spans="2:43" x14ac:dyDescent="0.45">
+    <row r="63" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B63" s="1" t="s">
         <v>18</v>
       </c>
@@ -6651,7 +6752,7 @@
       <c r="AP63" s="2"/>
       <c r="AQ63" s="2"/>
     </row>
-    <row r="64" spans="2:43" x14ac:dyDescent="0.45">
+    <row r="64" spans="2:43" x14ac:dyDescent="0.3">
       <c r="R64" s="2"/>
       <c r="S64" s="2"/>
       <c r="T64" s="2"/>
@@ -6671,7 +6772,7 @@
       <c r="AP64" s="2"/>
       <c r="AQ64" s="2"/>
     </row>
-    <row r="65" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A65" s="48">
         <v>7</v>
       </c>
@@ -6697,23 +6798,23 @@
       <c r="AP65" s="2"/>
       <c r="AQ65" s="2"/>
     </row>
-    <row r="66" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:43" x14ac:dyDescent="0.3">
       <c r="B66" s="6" t="s">
         <v>196</v>
       </c>
       <c r="F66" s="2">
         <f>D37*F59/1000*D4/1000*1.5*1.5</f>
-        <v>46.090880894935026</v>
+        <v>36.01029289801582</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>30</v>
       </c>
       <c r="H66" s="1">
         <f>D42*H59/1000*D4/1000*1.5</f>
-        <v>22.758374195821307</v>
-      </c>
-    </row>
-    <row r="69" spans="1:43" x14ac:dyDescent="0.45">
+        <v>23.142353787109997</v>
+      </c>
+    </row>
+    <row r="69" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A69" s="48">
         <v>8</v>
       </c>
@@ -6721,13 +6822,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="70" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:43" x14ac:dyDescent="0.3">
       <c r="B70" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E70" s="47">
-        <f>D13</f>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>25</v>
@@ -6740,48 +6840,48 @@
         <v>0.51444444444444448</v>
       </c>
     </row>
-    <row r="71" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:43" x14ac:dyDescent="0.3">
       <c r="B71" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E71" s="3">
         <f>E70*H70</f>
-        <v>5.1444444444444448</v>
+        <v>3.6011111111111114</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="72" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:43" x14ac:dyDescent="0.3">
       <c r="B72" s="1" t="s">
         <v>217</v>
       </c>
       <c r="E72" s="3">
         <f>E71/SQRT(9.08665*D27)</f>
-        <v>0.42414383330038274</v>
-      </c>
-    </row>
-    <row r="73" spans="1:43" x14ac:dyDescent="0.45">
+        <v>0.27850032735463787</v>
+      </c>
+    </row>
+    <row r="73" spans="1:43" x14ac:dyDescent="0.3">
       <c r="B73" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E73" s="9">
         <f>0.075/(LOG10(E74)-2)^2</f>
-        <v>2.1944396478437494E-3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:43" x14ac:dyDescent="0.45">
+        <v>2.2709551080136265E-3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:43" x14ac:dyDescent="0.3">
       <c r="B74" s="1" t="s">
         <v>218</v>
       </c>
       <c r="E74" s="9">
         <f>E71*(D27)/E75</f>
-        <v>70167275.10998784</v>
+        <v>55821772.91023121</v>
       </c>
       <c r="G74" s="8"/>
       <c r="H74" s="5"/>
     </row>
-    <row r="75" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:43" x14ac:dyDescent="0.3">
       <c r="B75" s="1" t="s">
         <v>69</v>
       </c>
@@ -6794,18 +6894,18 @@
       <c r="G75" s="8"/>
       <c r="H75" s="5"/>
     </row>
-    <row r="76" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:43" x14ac:dyDescent="0.3">
       <c r="B76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="E76" s="9">
         <f>E73*(1+E78)</f>
-        <v>4.2824858083488921E-3</v>
+        <v>3.5548133355592349E-3</v>
       </c>
       <c r="G76" s="8"/>
       <c r="H76" s="5"/>
     </row>
-    <row r="77" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:43" x14ac:dyDescent="0.3">
       <c r="B77" s="10" t="s">
         <v>71</v>
       </c>
@@ -6813,61 +6913,61 @@
       <c r="G77" s="8"/>
       <c r="H77" s="5"/>
     </row>
-    <row r="78" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:43" x14ac:dyDescent="0.3">
       <c r="B78" s="10" t="s">
         <v>216</v>
       </c>
       <c r="E78" s="3">
         <f>-0.095+25.6*D30/(D27/(2*D24))^2</f>
-        <v>0.95151678587144173</v>
+        <v>0.56533844417055934</v>
       </c>
       <c r="H78" s="5"/>
     </row>
-    <row r="79" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:43" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>68</v>
       </c>
       <c r="E79" s="2">
-        <f>E76*0.5*D3*E71^2*D37/1000</f>
-        <v>8.4251280949272438</v>
+        <f>E76*0.5*D3*E71^2*D42/1000</f>
+        <v>4.6433383014425029</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H79" s="3"/>
     </row>
-    <row r="80" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:43" x14ac:dyDescent="0.3">
       <c r="B80" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E80" s="2">
         <f>E79*E71</f>
-        <v>43.342603421681268</v>
+        <v>16.721177149972391</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>28</v>
       </c>
       <c r="H80" s="3"/>
     </row>
-    <row r="81" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B81" s="1" t="s">
         <v>70</v>
       </c>
       <c r="E81" s="2">
         <f>E80/(0.5*0.98)</f>
-        <v>88.454292697308716</v>
+        <v>34.124851326474271</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="82" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B82" s="12" t="s">
         <v>85</v>
       </c>
       <c r="E82" s="13">
         <f>E81/E83</f>
-        <v>88.454292697308716</v>
+        <v>34.124851326474271</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>28</v>
@@ -6875,7 +6975,7 @@
       <c r="N82" s="12"/>
       <c r="O82" s="12"/>
     </row>
-    <row r="83" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B83" s="1" t="s">
         <v>219</v>
       </c>
@@ -6883,22 +6983,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B84" s="1" t="s">
         <v>90</v>
       </c>
       <c r="E84" s="2">
         <f>E82*E174</f>
-        <v>8.8454292697308716</v>
+        <v>3.4124851326474275</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="85" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:32" x14ac:dyDescent="0.3">
       <c r="E85" s="2"/>
     </row>
-    <row r="86" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:32" x14ac:dyDescent="0.3">
       <c r="E86" s="1" t="s">
         <v>173</v>
       </c>
@@ -6906,7 +7006,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="87" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A87" s="48">
         <v>9</v>
       </c>
@@ -6915,7 +7015,7 @@
       </c>
       <c r="E87" s="2"/>
     </row>
-    <row r="88" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B88" s="1" t="s">
         <v>167</v>
       </c>
@@ -6927,10 +7027,10 @@
       </c>
       <c r="F88" s="2">
         <f>C88*C161*E82</f>
-        <v>21.229030247354093</v>
-      </c>
-    </row>
-    <row r="89" spans="1:32" x14ac:dyDescent="0.45">
+        <v>8.1899643183538249</v>
+      </c>
+    </row>
+    <row r="89" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B89" s="1" t="s">
         <v>169</v>
       </c>
@@ -6942,10 +7042,10 @@
       </c>
       <c r="E89" s="2">
         <f>C89*C161*E82/1000</f>
-        <v>18.57540146643483</v>
-      </c>
-    </row>
-    <row r="91" spans="1:32" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+        <v>7.166218778559597</v>
+      </c>
+    </row>
+    <row r="91" spans="1:32" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="48">
         <v>10</v>
       </c>
@@ -6953,7 +7053,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="92" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B92" s="26"/>
       <c r="C92" s="27"/>
       <c r="D92" s="27" t="s">
@@ -6982,7 +7082,7 @@
       </c>
       <c r="P92" s="30"/>
     </row>
-    <row r="93" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B93" s="31"/>
       <c r="C93" s="32"/>
       <c r="D93" s="32"/>
@@ -7011,7 +7111,7 @@
       <c r="AE93" s="2"/>
       <c r="AF93" s="2"/>
     </row>
-    <row r="94" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B94" s="31" t="s">
         <v>153</v>
       </c>
@@ -7025,27 +7125,27 @@
       <c r="H94" s="32"/>
       <c r="I94" s="33">
         <f>F66</f>
-        <v>46.090880894935026</v>
+        <v>36.01029289801582</v>
       </c>
       <c r="J94" s="32">
         <f>D23+D25</f>
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="K94" s="32" t="s">
         <v>61</v>
       </c>
       <c r="L94" s="34">
         <f>D26/2</f>
-        <v>7.6950000000000003</v>
+        <v>9</v>
       </c>
       <c r="M94" s="32"/>
       <c r="N94" s="33">
         <f>I94*J94</f>
-        <v>87.572673700376541</v>
+        <v>61.217497926626891</v>
       </c>
       <c r="O94" s="33">
         <f>I94*L94</f>
-        <v>354.66932848652505</v>
+        <v>324.09263608214235</v>
       </c>
       <c r="P94" s="35"/>
       <c r="R94" s="2"/>
@@ -7061,7 +7161,7 @@
       <c r="AE94" s="2"/>
       <c r="AF94" s="2"/>
     </row>
-    <row r="95" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B95" s="31" t="s">
         <v>152</v>
       </c>
@@ -7077,21 +7177,21 @@
       </c>
       <c r="J95" s="32">
         <f>D23/2+D25</f>
-        <v>1.1499999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="K95" s="32"/>
       <c r="L95" s="34">
         <f>E222</f>
-        <v>13.805152767149396</v>
+        <v>12.307419135036582</v>
       </c>
       <c r="M95" s="32"/>
       <c r="N95" s="33">
         <f t="shared" ref="N95:N113" si="0">I95*J95</f>
-        <v>0.89699999999999991</v>
+        <v>0.74099999999999999</v>
       </c>
       <c r="O95" s="33">
         <f t="shared" ref="O95:O113" si="1">I95*L95</f>
-        <v>10.768019158376529</v>
+        <v>9.5997869253285337</v>
       </c>
       <c r="P95" s="35"/>
       <c r="R95" s="2"/>
@@ -7107,7 +7207,7 @@
       <c r="AE95" s="2"/>
       <c r="AF95" s="2"/>
     </row>
-    <row r="96" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B96" s="31" t="s">
         <v>161</v>
       </c>
@@ -7122,21 +7222,21 @@
       </c>
       <c r="J96" s="32">
         <f>D23/2+D25</f>
-        <v>1.1499999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="K96" s="32"/>
       <c r="L96" s="34">
         <f>E213</f>
-        <v>10.778568120575349</v>
+        <v>9.6987637162076776</v>
       </c>
       <c r="M96" s="32"/>
       <c r="N96" s="33">
         <f t="shared" si="0"/>
-        <v>1.1499999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="O96" s="33">
         <f t="shared" si="1"/>
-        <v>10.778568120575349</v>
+        <v>9.6987637162076776</v>
       </c>
       <c r="P96" s="35"/>
       <c r="R96" s="2"/>
@@ -7152,7 +7252,7 @@
       <c r="AE96" s="2"/>
       <c r="AF96" s="2"/>
     </row>
-    <row r="97" spans="2:32" x14ac:dyDescent="0.45">
+    <row r="97" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B97" s="31" t="s">
         <v>162</v>
       </c>
@@ -7164,25 +7264,25 @@
       <c r="H97" s="32"/>
       <c r="I97" s="33">
         <f>E84</f>
-        <v>8.8454292697308716</v>
+        <v>3.4124851326474275</v>
       </c>
       <c r="J97" s="32">
         <f>D23+D25</f>
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="K97" s="32"/>
       <c r="L97" s="34">
         <f>E204</f>
-        <v>7.8759917370006507</v>
+        <v>7.4450541486893869</v>
       </c>
       <c r="M97" s="32"/>
       <c r="N97" s="33">
         <f t="shared" si="0"/>
-        <v>16.806315612488657</v>
+        <v>5.8012247255006262</v>
       </c>
       <c r="O97" s="33">
         <f t="shared" si="1"/>
-        <v>69.666527838624049</v>
+        <v>25.406136594157584</v>
       </c>
       <c r="P97" s="35"/>
       <c r="R97" s="2"/>
@@ -7198,7 +7298,7 @@
       <c r="AE97" s="2"/>
       <c r="AF97" s="2"/>
     </row>
-    <row r="98" spans="2:32" x14ac:dyDescent="0.45">
+    <row r="98" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B98" s="31" t="s">
         <v>163</v>
       </c>
@@ -7210,25 +7310,25 @@
       <c r="H98" s="32"/>
       <c r="I98" s="33">
         <f>F168</f>
-        <v>5.3072575618385232</v>
+        <v>2.0474910795884562</v>
       </c>
       <c r="J98" s="32">
         <f>D23/2+D25</f>
-        <v>1.1499999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="K98" s="32"/>
       <c r="L98" s="34">
         <f>E204</f>
-        <v>7.8759917370006507</v>
+        <v>7.4450541486893869</v>
       </c>
       <c r="M98" s="32"/>
       <c r="N98" s="33">
         <f t="shared" si="0"/>
-        <v>6.103346196114301</v>
+        <v>1.9451165256090333</v>
       </c>
       <c r="O98" s="33">
         <f t="shared" si="1"/>
-        <v>41.799916703174425</v>
+        <v>15.243681956494548</v>
       </c>
       <c r="P98" s="35"/>
       <c r="R98" s="2"/>
@@ -7244,7 +7344,7 @@
       <c r="AE98" s="2"/>
       <c r="AF98" s="2"/>
     </row>
-    <row r="99" spans="2:32" x14ac:dyDescent="0.45">
+    <row r="99" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B99" s="31" t="s">
         <v>177</v>
       </c>
@@ -7266,14 +7366,14 @@
       <c r="I99" s="33"/>
       <c r="J99" s="32">
         <f>D23/2+D25</f>
-        <v>1.1499999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="K99" s="32" t="s">
         <v>61</v>
       </c>
       <c r="L99" s="34">
         <f>E195</f>
-        <v>6.75</v>
+        <v>6.55</v>
       </c>
       <c r="M99" s="32"/>
       <c r="N99" s="33">
@@ -7298,7 +7398,7 @@
       <c r="AE99" s="2"/>
       <c r="AF99" s="2"/>
     </row>
-    <row r="100" spans="2:32" x14ac:dyDescent="0.45">
+    <row r="100" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B100" s="31" t="s">
         <v>165</v>
       </c>
@@ -7321,21 +7421,21 @@
       </c>
       <c r="J100" s="32">
         <f>D23/2+D25</f>
-        <v>1.1499999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="K100" s="32"/>
       <c r="L100" s="34">
         <f>E185</f>
-        <v>3.9499999999999997</v>
+        <v>3.75</v>
       </c>
       <c r="M100" s="32"/>
       <c r="N100" s="33">
         <f t="shared" si="0"/>
-        <v>0.22999999999999998</v>
+        <v>0.19</v>
       </c>
       <c r="O100" s="33">
         <f t="shared" si="1"/>
-        <v>0.79</v>
+        <v>0.75</v>
       </c>
       <c r="P100" s="35"/>
       <c r="R100" s="2"/>
@@ -7351,7 +7451,7 @@
       <c r="AE100" s="2"/>
       <c r="AF100" s="2"/>
     </row>
-    <row r="101" spans="2:32" x14ac:dyDescent="0.45">
+    <row r="101" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B101" s="31" t="s">
         <v>164</v>
       </c>
@@ -7374,21 +7474,21 @@
       </c>
       <c r="J101" s="32">
         <f>D23/2+D25</f>
-        <v>1.1499999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="K101" s="32"/>
       <c r="L101" s="34">
         <f>E185</f>
-        <v>3.9499999999999997</v>
+        <v>3.75</v>
       </c>
       <c r="M101" s="32"/>
       <c r="N101" s="33">
         <f t="shared" si="0"/>
-        <v>0.45999999999999996</v>
+        <v>0.38</v>
       </c>
       <c r="O101" s="33">
         <f t="shared" si="1"/>
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="P101" s="35"/>
       <c r="R101" s="2"/>
@@ -7404,7 +7504,7 @@
       <c r="AE101" s="2"/>
       <c r="AF101" s="2"/>
     </row>
-    <row r="102" spans="2:32" x14ac:dyDescent="0.45">
+    <row r="102" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B102" s="31" t="s">
         <v>175</v>
       </c>
@@ -7413,16 +7513,16 @@
       <c r="E102" s="33"/>
       <c r="I102" s="33">
         <f>E89</f>
-        <v>18.57540146643483</v>
+        <v>7.166218778559597</v>
       </c>
       <c r="J102" s="32">
         <f>D23/2+D25</f>
-        <v>1.1499999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="K102" s="32"/>
       <c r="L102" s="34">
         <f>D26/2</f>
-        <v>7.6950000000000003</v>
+        <v>9</v>
       </c>
       <c r="M102" s="32"/>
       <c r="N102" s="33"/>
@@ -7441,7 +7541,7 @@
       <c r="AE102" s="2"/>
       <c r="AF102" s="2"/>
     </row>
-    <row r="103" spans="2:32" x14ac:dyDescent="0.45">
+    <row r="103" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B103" s="31"/>
       <c r="C103" s="32"/>
       <c r="D103" s="32"/>
@@ -7474,7 +7574,7 @@
       <c r="AE103" s="2"/>
       <c r="AF103" s="2"/>
     </row>
-    <row r="104" spans="2:32" x14ac:dyDescent="0.45">
+    <row r="104" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B104" s="31" t="s">
         <v>160</v>
       </c>
@@ -7494,25 +7594,25 @@
       <c r="H104" s="32"/>
       <c r="I104" s="33">
         <f>E224*$D$3/1000*D104/100+G104</f>
-        <v>13.953348214679099</v>
+        <v>11.738235681032627</v>
       </c>
       <c r="J104" s="34">
         <f>$D$24*D104/100</f>
-        <v>1.8152780692298949</v>
+        <v>1.6241961672056957</v>
       </c>
       <c r="K104" s="37"/>
       <c r="L104" s="34">
         <f>E222</f>
-        <v>13.805152767149396</v>
+        <v>12.307419135036582</v>
       </c>
       <c r="M104" s="32"/>
       <c r="N104" s="33">
         <f t="shared" si="0"/>
-        <v>25.329207006435077</v>
+        <v>19.065197402890334</v>
       </c>
       <c r="O104" s="33">
         <f t="shared" si="1"/>
-        <v>192.62810371687627</v>
+        <v>144.46738643231012</v>
       </c>
       <c r="P104" s="35"/>
       <c r="R104" s="2"/>
@@ -7528,7 +7628,7 @@
       <c r="AE104" s="2"/>
       <c r="AF104" s="2"/>
     </row>
-    <row r="105" spans="2:32" x14ac:dyDescent="0.45">
+    <row r="105" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B105" s="31" t="s">
         <v>159</v>
       </c>
@@ -7548,25 +7648,25 @@
       <c r="H105" s="32"/>
       <c r="I105" s="33">
         <f>E215*$D$3/1000*D105/100+G105</f>
-        <v>24.994023886975771</v>
+        <v>11.98671884080882</v>
       </c>
       <c r="J105" s="34">
         <f t="shared" ref="J105:J113" si="2">$D$24*D105/100</f>
-        <v>1.8390550603684923</v>
+        <v>1.6454703171718088</v>
       </c>
       <c r="K105" s="37"/>
       <c r="L105" s="34">
         <f>E213</f>
-        <v>10.778568120575349</v>
+        <v>9.6987637162076776</v>
       </c>
       <c r="M105" s="32"/>
       <c r="N105" s="33">
         <f t="shared" si="0"/>
-        <v>45.965386108313766</v>
+        <v>19.723790052834985</v>
       </c>
       <c r="O105" s="33">
         <f t="shared" si="1"/>
-        <v>269.39978907305579</v>
+        <v>116.25635376961954</v>
       </c>
       <c r="P105" s="35"/>
       <c r="R105" s="2"/>
@@ -7582,7 +7682,7 @@
       <c r="AE105" s="2"/>
       <c r="AF105" s="2"/>
     </row>
-    <row r="106" spans="2:32" x14ac:dyDescent="0.45">
+    <row r="106" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B106" s="31" t="s">
         <v>158</v>
       </c>
@@ -7597,30 +7697,30 @@
       </c>
       <c r="G106" s="52">
         <f>F106*E147</f>
-        <v>1.7917834435712232</v>
+        <v>0.6912535475281284</v>
       </c>
       <c r="H106" s="32"/>
       <c r="I106" s="33">
         <f>E206*$D$3/1000*D106/100+G106</f>
-        <v>4.7179878062383782</v>
+        <v>1.2225018714831162</v>
       </c>
       <c r="J106" s="34">
         <f t="shared" si="2"/>
-        <v>1.6882521503372518</v>
+        <v>1.5105413976701729</v>
       </c>
       <c r="K106" s="37"/>
       <c r="L106" s="34">
         <f>E204</f>
-        <v>7.8759917370006507</v>
+        <v>7.4450541486893869</v>
       </c>
       <c r="M106" s="32"/>
       <c r="N106" s="33">
         <f t="shared" si="0"/>
-        <v>7.9651530591468758</v>
+        <v>1.8466396856045084</v>
       </c>
       <c r="O106" s="33">
         <f t="shared" si="1"/>
-        <v>37.158832977203296</v>
+        <v>9.1015926300659142</v>
       </c>
       <c r="P106" s="35"/>
       <c r="R106" s="2"/>
@@ -7636,7 +7736,7 @@
       <c r="AE106" s="2"/>
       <c r="AF106" s="2"/>
     </row>
-    <row r="107" spans="2:32" x14ac:dyDescent="0.45">
+    <row r="107" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B107" s="31" t="s">
         <v>42</v>
       </c>
@@ -7651,32 +7751,32 @@
       </c>
       <c r="G107" s="52">
         <f>F107*E148</f>
-        <v>12.040404330760056</v>
+        <v>10.048768352714717</v>
       </c>
       <c r="H107" s="32"/>
       <c r="I107" s="33">
         <f>E197*$D$3/1000*D107/100+G107</f>
-        <v>15.318480722339395</v>
+        <v>11.591392536987346</v>
       </c>
       <c r="J107" s="34">
         <f t="shared" si="2"/>
-        <v>1.1377582977906693</v>
+        <v>1.0179942664442831</v>
       </c>
       <c r="K107" s="37" t="s">
         <v>63</v>
       </c>
       <c r="L107" s="34">
         <f>E195</f>
-        <v>6.75</v>
+        <v>6.55</v>
       </c>
       <c r="M107" s="32"/>
       <c r="N107" s="33">
         <f t="shared" si="0"/>
-        <v>17.428728551388051</v>
+        <v>11.799971142758171</v>
       </c>
       <c r="O107" s="33">
         <f t="shared" si="1"/>
-        <v>103.39974487579092</v>
+        <v>75.923621117267118</v>
       </c>
       <c r="P107" s="35"/>
       <c r="R107" s="2"/>
@@ -7692,7 +7792,7 @@
       <c r="AE107" s="2"/>
       <c r="AF107" s="2"/>
     </row>
-    <row r="108" spans="2:32" x14ac:dyDescent="0.45">
+    <row r="108" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B108" s="31" t="s">
         <v>41</v>
       </c>
@@ -7712,27 +7812,27 @@
       <c r="H108" s="32"/>
       <c r="I108" s="33">
         <f>E187*$D$3/1000*D108/100+G108</f>
-        <v>5.6277294486712695</v>
+        <v>3.9097955061196483</v>
       </c>
       <c r="J108" s="34">
         <f t="shared" si="2"/>
-        <v>0.34337602606823531</v>
+        <v>0.30723118121894738</v>
       </c>
       <c r="K108" s="37" t="s">
         <v>62</v>
       </c>
       <c r="L108" s="34">
         <f>E185</f>
-        <v>3.9499999999999997</v>
+        <v>3.75</v>
       </c>
       <c r="M108" s="32"/>
       <c r="N108" s="33">
         <f t="shared" si="0"/>
-        <v>1.9324273738719213</v>
+        <v>1.2012110916696717</v>
       </c>
       <c r="O108" s="33">
         <f t="shared" si="1"/>
-        <v>22.229531322251514</v>
+        <v>14.661733147948681</v>
       </c>
       <c r="P108" s="35"/>
       <c r="R108" s="2"/>
@@ -7748,7 +7848,7 @@
       <c r="AE108" s="2"/>
       <c r="AF108" s="2"/>
     </row>
-    <row r="109" spans="2:32" x14ac:dyDescent="0.45">
+    <row r="109" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B109" s="31"/>
       <c r="C109" s="32"/>
       <c r="D109" s="33"/>
@@ -7777,7 +7877,7 @@
       <c r="AE109" s="2"/>
       <c r="AF109" s="2"/>
     </row>
-    <row r="110" spans="2:32" x14ac:dyDescent="0.45">
+    <row r="110" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B110" s="31" t="s">
         <v>239</v>
       </c>
@@ -7793,25 +7893,25 @@
       <c r="H110" s="32"/>
       <c r="I110" s="33">
         <f>D53/2*D3/1000*G110</f>
-        <v>17.669510888997355</v>
+        <v>12.656408659811053</v>
       </c>
       <c r="J110" s="34">
         <f t="shared" si="2"/>
-        <v>1.1914500015731035</v>
+        <v>1.0660342119338295</v>
       </c>
       <c r="K110" s="37"/>
       <c r="L110" s="34">
         <f>D24/2</f>
-        <v>0.95</v>
+        <v>0.85</v>
       </c>
       <c r="M110" s="32"/>
       <c r="N110" s="33">
         <f t="shared" si="0"/>
-        <v>21.052338776491869</v>
+        <v>13.492164631574171</v>
       </c>
       <c r="O110" s="33">
         <f t="shared" si="1"/>
-        <v>16.786035344547486</v>
+        <v>10.757947360839395</v>
       </c>
       <c r="P110" s="35"/>
       <c r="R110" s="2"/>
@@ -7827,7 +7927,7 @@
       <c r="AE110" s="2"/>
       <c r="AF110" s="2"/>
     </row>
-    <row r="111" spans="2:32" x14ac:dyDescent="0.45">
+    <row r="111" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B111" s="31" t="s">
         <v>238</v>
       </c>
@@ -7841,25 +7941,25 @@
       <c r="H111" s="32"/>
       <c r="I111" s="33">
         <f>D53/2*D3/1000*G110</f>
-        <v>17.669510888997355</v>
+        <v>12.656408659811053</v>
       </c>
       <c r="J111" s="34">
         <f t="shared" si="2"/>
-        <v>1.1914500015731035</v>
+        <v>1.0660342119338295</v>
       </c>
       <c r="K111" s="37"/>
       <c r="L111" s="34">
         <f>D24+E145+E146+E147+E148+E149/2+D24/2</f>
-        <v>14.755152767149395</v>
+        <v>13.157419135036582</v>
       </c>
       <c r="M111" s="32"/>
       <c r="N111" s="33">
         <f t="shared" si="0"/>
-        <v>21.052338776491869</v>
+        <v>13.492164631574171</v>
       </c>
       <c r="O111" s="33">
         <f t="shared" si="1"/>
-        <v>260.7163324879657</v>
+        <v>166.52567348144063</v>
       </c>
       <c r="P111" s="35"/>
       <c r="R111" s="2"/>
@@ -7875,7 +7975,7 @@
       <c r="AE111" s="2"/>
       <c r="AF111" s="2"/>
     </row>
-    <row r="112" spans="2:32" x14ac:dyDescent="0.45">
+    <row r="112" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B112" s="31" t="s">
         <v>233</v>
       </c>
@@ -7893,12 +7993,12 @@
       </c>
       <c r="J112" s="34">
         <f t="shared" si="2"/>
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="K112" s="37"/>
       <c r="L112" s="34">
         <f>D24+E149/2</f>
-        <v>2.4</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="M112" s="32"/>
       <c r="N112" s="33">
@@ -7923,7 +8023,7 @@
       <c r="AE112" s="2"/>
       <c r="AF112" s="2"/>
     </row>
-    <row r="113" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B113" s="31" t="s">
         <v>234</v>
       </c>
@@ -7941,12 +8041,12 @@
       </c>
       <c r="J113" s="34">
         <f t="shared" si="2"/>
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="K113" s="37"/>
       <c r="L113" s="34">
         <f>D24+E150/2</f>
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="M113" s="32"/>
       <c r="N113" s="33">
@@ -7971,7 +8071,7 @@
       <c r="AE113" s="2"/>
       <c r="AF113" s="2"/>
     </row>
-    <row r="114" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B114" s="31"/>
       <c r="C114" s="32"/>
       <c r="D114" s="33"/>
@@ -8000,7 +8100,7 @@
       <c r="AE114" s="2"/>
       <c r="AF114" s="2"/>
     </row>
-    <row r="115" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B115" s="31" t="s">
         <v>228</v>
       </c>
@@ -8012,7 +8112,7 @@
       <c r="H115" s="32"/>
       <c r="I115" s="33">
         <f>SUM(I104:I113)</f>
-        <v>99.950591856898612</v>
+        <v>65.761461756053663</v>
       </c>
       <c r="J115" s="32"/>
       <c r="K115" s="32"/>
@@ -8022,7 +8122,7 @@
       <c r="O115" s="32"/>
       <c r="P115" s="35"/>
     </row>
-    <row r="116" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B116" s="31"/>
       <c r="C116" s="32"/>
       <c r="D116" s="33"/>
@@ -8055,7 +8155,7 @@
       <c r="AE116" s="2"/>
       <c r="AF116" s="2"/>
     </row>
-    <row r="117" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B117" s="31"/>
       <c r="C117" s="32"/>
       <c r="D117" s="32"/>
@@ -8084,7 +8184,7 @@
       <c r="AE117" s="2"/>
       <c r="AF117" s="2"/>
     </row>
-    <row r="118" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B118" s="31"/>
       <c r="C118" s="32"/>
       <c r="D118" s="32"/>
@@ -8096,25 +8196,25 @@
       <c r="H118" s="32"/>
       <c r="I118" s="39">
         <f>SUM(I93:I108)+I110+I111</f>
-        <v>181.1495610498379</v>
+        <v>116.77794964486496</v>
       </c>
       <c r="J118" s="40">
         <f>N118/I118</f>
-        <v>1.401852224699863</v>
+        <v>1.3002966594157845</v>
       </c>
       <c r="K118" s="32"/>
       <c r="L118" s="41">
         <f>O118/I118</f>
-        <v>7.6863047419800097</v>
+        <v>7.9123269078089367</v>
       </c>
       <c r="M118" s="32"/>
       <c r="N118" s="33">
         <f>SUM(N93:N113)</f>
-        <v>253.94491516111893</v>
+        <v>151.8459778166426</v>
       </c>
       <c r="O118" s="33">
         <f>SUM(O93:O113)</f>
-        <v>1392.3707301049662</v>
+        <v>923.98531321382211</v>
       </c>
       <c r="P118" s="35"/>
       <c r="R118" s="2"/>
@@ -8130,7 +8230,7 @@
       <c r="AE118" s="2"/>
       <c r="AF118" s="2"/>
     </row>
-    <row r="119" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B119" s="31"/>
       <c r="C119" s="32"/>
       <c r="D119" s="32"/>
@@ -8142,7 +8242,7 @@
       <c r="H119" s="32"/>
       <c r="I119" s="39">
         <f>D55</f>
-        <v>173.47894791675697</v>
+        <v>160.68675700446386</v>
       </c>
       <c r="J119" s="32"/>
       <c r="K119" s="32"/>
@@ -8164,7 +8264,7 @@
       <c r="AE119" s="2"/>
       <c r="AF119" s="2"/>
     </row>
-    <row r="120" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B120" s="31"/>
       <c r="C120" s="32"/>
       <c r="D120" s="32"/>
@@ -8177,7 +8277,7 @@
       <c r="I120" s="32"/>
       <c r="J120" s="38">
         <f>D23+D25</f>
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="K120" s="32"/>
       <c r="L120" s="32"/>
@@ -8186,7 +8286,7 @@
       <c r="O120" s="32"/>
       <c r="P120" s="35"/>
     </row>
-    <row r="121" spans="1:32" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="121" spans="1:32" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B121" s="42"/>
       <c r="C121" s="43"/>
       <c r="D121" s="43"/>
@@ -8201,17 +8301,17 @@
       <c r="K121" s="43"/>
       <c r="L121" s="44">
         <f>D26/2</f>
-        <v>7.6950000000000003</v>
+        <v>9</v>
       </c>
       <c r="M121" s="43"/>
       <c r="N121" s="43"/>
       <c r="O121" s="43"/>
       <c r="P121" s="45"/>
     </row>
-    <row r="122" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:32" x14ac:dyDescent="0.3">
       <c r="D122" s="11"/>
     </row>
-    <row r="123" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:32" x14ac:dyDescent="0.3">
       <c r="H123" s="3"/>
       <c r="M123" s="1" t="s">
         <v>178</v>
@@ -8220,59 +8320,59 @@
         <v>179</v>
       </c>
     </row>
-    <row r="124" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:32" x14ac:dyDescent="0.3">
       <c r="E124" s="1" t="s">
         <v>78</v>
       </c>
       <c r="H124" s="46">
         <f>ATAN((D26/2-L118)/(J120-J118))*180/PI()</f>
-        <v>1.0000064687234247</v>
+        <v>69.82238665109756</v>
       </c>
       <c r="I124" s="47" t="s">
         <v>47</v>
       </c>
       <c r="M124" s="21">
         <f>D26/2</f>
-        <v>7.6950000000000003</v>
+        <v>9</v>
       </c>
       <c r="N124" s="21">
         <f>L118</f>
-        <v>7.6863047419800097</v>
-      </c>
-    </row>
-    <row r="125" spans="1:32" x14ac:dyDescent="0.45">
+        <v>7.9123269078089367</v>
+      </c>
+    </row>
+    <row r="125" spans="1:32" x14ac:dyDescent="0.3">
       <c r="L125" s="1" t="s">
         <v>180</v>
       </c>
       <c r="M125" s="21">
         <f>J120</f>
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="N125" s="21">
         <f>J118</f>
-        <v>1.401852224699863</v>
-      </c>
-    </row>
-    <row r="126" spans="1:32" x14ac:dyDescent="0.45">
+        <v>1.3002966594157845</v>
+      </c>
+    </row>
+    <row r="126" spans="1:32" x14ac:dyDescent="0.3">
       <c r="L126" s="3"/>
       <c r="M126" s="1" t="s">
         <v>181</v>
       </c>
       <c r="N126" s="3">
         <f>M125-N125</f>
-        <v>0.49814777530013687</v>
-      </c>
-    </row>
-    <row r="127" spans="1:32" x14ac:dyDescent="0.45">
+        <v>0.39970334058421542</v>
+      </c>
+    </row>
+    <row r="127" spans="1:32" x14ac:dyDescent="0.3">
       <c r="M127" s="1" t="s">
         <v>182</v>
       </c>
       <c r="N127" s="3">
         <f>N124-M124</f>
-        <v>-8.6952580199906038E-3</v>
-      </c>
-    </row>
-    <row r="128" spans="1:32" x14ac:dyDescent="0.45">
+        <v>-1.0876730921910633</v>
+      </c>
+    </row>
+    <row r="128" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A128" s="48">
         <v>11</v>
       </c>
@@ -8280,19 +8380,19 @@
         <v>80</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.3">
       <c r="L129" s="1" t="s">
         <v>194</v>
       </c>
       <c r="N129" s="2">
         <f>ATAN(N127/N126)*180/PI()</f>
-        <v>-1.0000064687234247</v>
+        <v>-69.82238665109756</v>
       </c>
       <c r="O129" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B130" s="1" t="s">
         <v>34</v>
       </c>
@@ -8310,19 +8410,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B132" s="6" t="s">
         <v>46</v>
       </c>
       <c r="G132" s="5">
         <f>MAX(0,SIGN(2*D23-G130))*D21+2*SQRT(MAX(0, D23^2-(D23-G130)^2))</f>
-        <v>13.697669683062204</v>
+        <v>16.307669683062205</v>
       </c>
       <c r="H132" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B133" s="1" t="s">
         <v>37</v>
       </c>
@@ -8334,19 +8434,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B134" s="1" t="s">
         <v>38</v>
       </c>
       <c r="G134" s="3">
         <f>(D23^2*(PI()-ACOS(MIN(1, (G130-D23)/D23)))+(G130-D23)*G133/2)*D21</f>
-        <v>85.942617731469113</v>
+        <v>104.04675270153645</v>
       </c>
       <c r="H134" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B135" s="1" t="s">
         <v>39</v>
       </c>
@@ -8358,43 +8458,43 @@
         <v>12</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B136" s="1" t="s">
         <v>50</v>
       </c>
       <c r="G136" s="3">
         <f>G134+G135</f>
-        <v>99.977290212299806</v>
+        <v>118.08142518236716</v>
       </c>
       <c r="H136" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B137" s="1" t="s">
         <v>35</v>
       </c>
       <c r="G137" s="3">
         <f>G138+G139-J118</f>
-        <v>2.5756116759726919</v>
+        <v>3.1635222881296814</v>
       </c>
       <c r="H137" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B138" s="1" t="s">
         <v>36</v>
       </c>
       <c r="G138" s="3">
         <f>G132*G133^3/12</f>
-        <v>2.5524639006725551</v>
+        <v>3.0388189475454666</v>
       </c>
       <c r="H138" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B139" s="1" t="s">
         <v>79</v>
       </c>
@@ -8406,12 +8506,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.3">
       <c r="J140" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.3">
       <c r="L141" s="22">
         <v>5</v>
       </c>
@@ -8425,7 +8525,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A142" s="48">
         <v>12</v>
       </c>
@@ -8452,7 +8552,7 @@
         <v>28.682944670571846</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.3">
       <c r="I143" s="1" t="s">
         <v>159</v>
       </c>
@@ -8473,7 +8573,7 @@
         <v>94.794422369265192</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B144" s="12" t="s">
         <v>45</v>
       </c>
@@ -8500,7 +8600,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B145" s="1" t="s">
         <v>147</v>
       </c>
@@ -8543,7 +8643,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B146" s="1" t="s">
         <v>148</v>
       </c>
@@ -8579,7 +8679,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B147" s="1" t="s">
         <v>149</v>
       </c>
@@ -8591,13 +8691,13 @@
       </c>
       <c r="E147" s="18">
         <f>D169</f>
-        <v>0.75198347400130106</v>
+        <v>0.29010829737877475</v>
       </c>
       <c r="F147" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B148" s="1" t="s">
         <v>139</v>
       </c>
@@ -8609,7 +8709,7 @@
       </c>
       <c r="E148" s="18">
         <f>(15.385*E82+3692.3)/1000</f>
-        <v>5.0531692931480947</v>
+        <v>4.2173108376578066</v>
       </c>
       <c r="F148" s="1" t="s">
         <v>0</v>
@@ -8630,7 +8730,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B149" s="1" t="s">
         <v>150</v>
       </c>
@@ -8666,7 +8766,7 @@
         <v>67.34340040956603</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B150" s="1" t="s">
         <v>233</v>
       </c>
@@ -8697,7 +8797,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B151" s="1" t="s">
         <v>234</v>
       </c>
@@ -8728,11 +8828,11 @@
         <v>100</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D152" s="2"/>
       <c r="E152" s="2">
         <f>SUM(E145:E151)</f>
-        <v>12.405152767149396</v>
+        <v>11.107419135036581</v>
       </c>
       <c r="F152" s="1" t="s">
         <v>0</v>
@@ -8757,7 +8857,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E153" s="2"/>
       <c r="I153" s="1" t="s">
         <v>41</v>
@@ -8779,7 +8879,7 @@
         <v>82.331499535408255</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A155" s="48">
         <v>13</v>
       </c>
@@ -8788,7 +8888,7 @@
       </c>
       <c r="E155" s="2"/>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B156" s="1" t="s">
         <v>100</v>
       </c>
@@ -8800,7 +8900,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E157" s="2"/>
       <c r="H157" s="1">
         <v>20</v>
@@ -8809,7 +8909,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B158" s="1" t="s">
         <v>107</v>
       </c>
@@ -8827,7 +8927,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B159" s="1" t="s">
         <v>109</v>
       </c>
@@ -8854,7 +8954,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B160" s="1" t="s">
         <v>110</v>
       </c>
@@ -8881,7 +8981,7 @@
         <v>2340</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B161" s="1" t="s">
         <v>172</v>
       </c>
@@ -8909,21 +9009,21 @@
         <v>20.147400000000001</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E162" s="2"/>
       <c r="F162" s="1" t="s">
         <v>146</v>
       </c>
       <c r="G162" s="2"/>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E163" s="2"/>
       <c r="G163" s="2"/>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E164" s="2"/>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165" s="48">
         <v>14</v>
       </c>
@@ -8941,10 +9041,10 @@
       </c>
       <c r="H165" s="2">
         <f>E82</f>
-        <v>88.454292697308716</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.45">
+        <v>34.124851326474271</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B166" s="1" t="s">
         <v>102</v>
       </c>
@@ -8959,14 +9059,14 @@
       </c>
       <c r="F166" s="3">
         <f>C166*C159*$H$165/1000</f>
-        <v>1.6983224197883275</v>
+        <v>0.6551971454683061</v>
       </c>
       <c r="G166" s="3">
         <f>F166/(E166/1000)</f>
-        <v>2.1524998983375507</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.45">
+        <v>0.83041463303967811</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B167" s="1" t="s">
         <v>104</v>
       </c>
@@ -8981,43 +9081,43 @@
       </c>
       <c r="F167" s="3">
         <f>C167*C159*$H$165/1000</f>
-        <v>3.6089351420501954</v>
+        <v>1.3922939341201501</v>
       </c>
       <c r="G167" s="3">
         <f>F167/(E167/1000)</f>
-        <v>3.1629580561351407</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.45">
+        <v>1.2202400824891761</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E168" s="2" t="s">
         <v>137</v>
       </c>
       <c r="F168" s="3">
         <f>F166+F167</f>
-        <v>5.3072575618385232</v>
+        <v>2.0474910795884562</v>
       </c>
       <c r="G168" s="3">
         <f>G166+G167</f>
-        <v>5.3154579544726914</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.45">
+        <v>2.0506547155288541</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B169" s="1" t="s">
         <v>138</v>
       </c>
       <c r="D169" s="3">
         <f>G168/(D23^2*PI())</f>
-        <v>0.75198347400130106</v>
+        <v>0.29010829737877475</v>
       </c>
       <c r="E169" s="2"/>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E170" s="2"/>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E171" s="2"/>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A172" s="48">
         <v>15</v>
       </c>
@@ -9025,12 +9125,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B173" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B174" s="1" t="s">
         <v>105</v>
       </c>
@@ -9042,7 +9142,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="177" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A177" s="49"/>
       <c r="B177" s="23" t="s">
         <v>183</v>
@@ -9054,7 +9154,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" s="48">
         <v>16</v>
       </c>
@@ -9062,7 +9162,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B182" s="1" t="s">
         <v>81</v>
       </c>
@@ -9073,7 +9173,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B183" s="1" t="s">
         <v>82</v>
       </c>
@@ -9084,19 +9184,19 @@
         <v>47</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B184" s="1" t="s">
         <v>230</v>
       </c>
       <c r="E184" s="47">
         <f>D24</f>
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="F184" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B185" s="1" t="s">
         <v>84</v>
       </c>
@@ -9105,13 +9205,13 @@
       </c>
       <c r="E185" s="3">
         <f>D24+E145/2</f>
-        <v>3.9499999999999997</v>
+        <v>3.75</v>
       </c>
       <c r="F185" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B186" s="17" t="s">
         <v>134</v>
       </c>
@@ -9126,7 +9226,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B187" s="17" t="s">
         <v>135</v>
       </c>
@@ -9135,27 +9235,27 @@
       </c>
       <c r="E187" s="2">
         <f>PI()*(360-E182-E183)/360*-(D23^2-E184^2)*E145</f>
-        <v>17.517520636416684</v>
+        <v>8.2435391230196124</v>
       </c>
       <c r="F187" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G187" s="1">
         <f>(D24^2-D23^2)*PI()*E145</f>
-        <v>17.517520636416684</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.45">
+        <v>8.2435391230196124</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B188" s="17"/>
       <c r="C188" s="7"/>
       <c r="E188" s="2"/>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B190" s="12" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B191" s="1" t="s">
         <v>40</v>
       </c>
@@ -9166,7 +9266,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B192" s="1" t="s">
         <v>44</v>
       </c>
@@ -9177,7 +9277,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="193" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="193" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B193" s="1" t="s">
         <v>83</v>
       </c>
@@ -9185,19 +9285,19 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="194" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="194" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B194" s="1" t="s">
         <v>223</v>
       </c>
       <c r="E194" s="47">
         <f>D24</f>
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="F194" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="195" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B195" s="1" t="s">
         <v>56</v>
       </c>
@@ -9206,13 +9306,13 @@
       </c>
       <c r="E195" s="3">
         <f>D24+E145+E146/2</f>
-        <v>6.75</v>
+        <v>6.55</v>
       </c>
       <c r="F195" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="196" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B196" s="17" t="s">
         <v>93</v>
       </c>
@@ -9227,7 +9327,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="197" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="197" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B197" s="17" t="s">
         <v>94</v>
       </c>
@@ -9236,23 +9336,23 @@
       </c>
       <c r="E197" s="2">
         <f>PI()*(360-E191-E192)/360*-(D23^2-E194^2)*E146</f>
-        <v>5.3407075111026483</v>
+        <v>2.5132741228718336</v>
       </c>
       <c r="F197" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="198" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="198" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B198" s="17"/>
       <c r="C198" s="7"/>
       <c r="E198" s="2"/>
     </row>
-    <row r="200" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="200" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B200" s="12" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="201" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="201" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B201" s="1" t="s">
         <v>114</v>
       </c>
@@ -9263,7 +9363,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="202" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="202" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B202" s="1" t="s">
         <v>115</v>
       </c>
@@ -9274,19 +9374,19 @@
         <v>47</v>
       </c>
     </row>
-    <row r="203" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="203" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B203" s="1" t="s">
         <v>224</v>
       </c>
       <c r="E203" s="47">
         <f>D24</f>
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="F203" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="204" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B204" s="1" t="s">
         <v>116</v>
       </c>
@@ -9295,13 +9395,13 @@
       </c>
       <c r="E204" s="3">
         <f>D24+E145+E146+E147/2</f>
-        <v>7.8759917370006507</v>
+        <v>7.4450541486893869</v>
       </c>
       <c r="F204" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="205" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B205" s="17" t="s">
         <v>124</v>
       </c>
@@ -9310,13 +9410,13 @@
       </c>
       <c r="E205" s="2">
         <f>D23^2*PI()*E147</f>
-        <v>5.3154579544726914</v>
+        <v>2.0506547155288541</v>
       </c>
       <c r="F205" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="206" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="206" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B206" s="17" t="s">
         <v>125</v>
       </c>
@@ -9325,23 +9425,23 @@
       </c>
       <c r="E206" s="2">
         <f>PI()*(360-E201-E202)/360*-(D23^2-E203^2)*E147</f>
-        <v>3.2128990302590492</v>
+        <v>0.58329734130598476</v>
       </c>
       <c r="F206" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="207" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="207" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B207" s="17"/>
       <c r="C207" s="7"/>
       <c r="E207" s="2"/>
     </row>
-    <row r="209" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="209" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B209" s="12" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="210" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="210" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B210" s="1" t="s">
         <v>118</v>
       </c>
@@ -9352,7 +9452,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="211" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="211" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B211" s="1" t="s">
         <v>119</v>
       </c>
@@ -9363,19 +9463,19 @@
         <v>47</v>
       </c>
     </row>
-    <row r="212" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="212" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B212" s="1" t="s">
         <v>225</v>
       </c>
       <c r="E212" s="47">
         <f>D24</f>
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="F212" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="213" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B213" s="1" t="s">
         <v>120</v>
       </c>
@@ -9384,13 +9484,13 @@
       </c>
       <c r="E213" s="3">
         <f>D24+E145+E146+E147+E148/2</f>
-        <v>10.778568120575349</v>
+        <v>9.6987637162076776</v>
       </c>
       <c r="F213" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="214" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B214" s="17" t="s">
         <v>122</v>
       </c>
@@ -9399,13 +9499,13 @@
       </c>
       <c r="E214" s="2">
         <f>D23^2*PI()*E148</f>
-        <v>35.718748939574063</v>
+        <v>29.81041367735336</v>
       </c>
       <c r="F214" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="215" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="215" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B215" s="17" t="s">
         <v>123</v>
       </c>
@@ -9414,23 +9514,23 @@
       </c>
       <c r="E215" s="2">
         <f>PI()*(360-E210-E211)/360*-(D23^2-E212^2)*E148</f>
-        <v>21.589999359031431</v>
+        <v>8.4794065571138386</v>
       </c>
       <c r="F215" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="216" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="216" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B216" s="17"/>
       <c r="C216" s="7"/>
       <c r="E216" s="2"/>
     </row>
-    <row r="218" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="218" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B218" s="12" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="219" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="219" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B219" s="1" t="s">
         <v>154</v>
       </c>
@@ -9441,7 +9541,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="220" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="220" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B220" s="1" t="s">
         <v>127</v>
       </c>
@@ -9452,19 +9552,19 @@
         <v>47</v>
       </c>
     </row>
-    <row r="221" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="221" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B221" s="1" t="s">
         <v>226</v>
       </c>
       <c r="E221" s="47">
         <f>D24</f>
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="F221" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="222" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B222" s="1" t="s">
         <v>128</v>
       </c>
@@ -9473,13 +9573,13 @@
       </c>
       <c r="E222" s="3">
         <f>D24+E145+E146+E147+E148+E149/2</f>
-        <v>13.805152767149396</v>
+        <v>12.307419135036582</v>
       </c>
       <c r="F222" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="223" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B223" s="17" t="s">
         <v>129</v>
       </c>
@@ -9494,7 +9594,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="224" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="224" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B224" s="17" t="s">
         <v>130</v>
       </c>
@@ -9503,24 +9603,24 @@
       </c>
       <c r="E224" s="2">
         <f>PI()*(360-E219-E220)/360*-(D23^2-E221^2)*E149</f>
-        <v>4.2725660088821185</v>
+        <v>2.0106192982974664</v>
       </c>
       <c r="F224" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="225" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="225" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B225" s="17"/>
       <c r="C225" s="7"/>
       <c r="E225" s="2"/>
     </row>
-    <row r="231" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="231" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B231" s="12"/>
     </row>
-    <row r="232" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="232" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E232" s="2"/>
     </row>
-    <row r="233" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="233" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E233" s="3"/>
     </row>
   </sheetData>
